--- a/planejamento/notebooks-areas.xlsx
+++ b/planejamento/notebooks-areas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helena.strada\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-1s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="150">
   <si>
     <t>ANDRE LUIZ TEIXEIRA GRIGAITIS RIBEIRO</t>
   </si>
@@ -8665,7 +8665,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16356,7 +16356,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16549,11 +16549,21 @@
       <c r="A10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="B10" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
@@ -16599,11 +16609,21 @@
       <c r="A13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="B13" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
